--- a/Label Template/Whole Fish ID/whole label.xlsx
+++ b/Label Template/Whole Fish ID/whole label.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914DF409-0FD5-43DD-A898-388C6A264E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="259">
   <si>
     <t>fishid</t>
   </si>
@@ -42,620 +43,776 @@
     <t>|</t>
   </si>
   <si>
-    <t>Whole Fish</t>
-  </si>
-  <si>
     <t>Frozen</t>
   </si>
   <si>
-    <t>ANX102219J001</t>
-  </si>
-  <si>
-    <t>ANX102219J002</t>
-  </si>
-  <si>
-    <t>ANX102219J003</t>
-  </si>
-  <si>
-    <t>ANX102219J004</t>
-  </si>
-  <si>
-    <t>ANX102219J005</t>
-  </si>
-  <si>
-    <t>ANX102219J006</t>
-  </si>
-  <si>
-    <t>ANX102219J007</t>
-  </si>
-  <si>
-    <t>ANX102219J008</t>
-  </si>
-  <si>
-    <t>ANX102219J009</t>
-  </si>
-  <si>
-    <t>ANX102219J010</t>
-  </si>
-  <si>
-    <t>ANX102219J011</t>
-  </si>
-  <si>
-    <t>ANX102219J012</t>
-  </si>
-  <si>
-    <t>ANX102219J013</t>
-  </si>
-  <si>
-    <t>ANX102219J014</t>
-  </si>
-  <si>
-    <t>ANX102219J015</t>
-  </si>
-  <si>
-    <t>ANX102219J016</t>
-  </si>
-  <si>
-    <t>ANX102219J017</t>
-  </si>
-  <si>
-    <t>ANX102219J018</t>
-  </si>
-  <si>
-    <t>ANX102219J019</t>
-  </si>
-  <si>
-    <t>ANX102219J020</t>
-  </si>
-  <si>
-    <t>ANX102219J021</t>
-  </si>
-  <si>
-    <t>ANX102219J022</t>
-  </si>
-  <si>
-    <t>ANX102219J023</t>
-  </si>
-  <si>
-    <t>ANX102219J024</t>
-  </si>
-  <si>
-    <t>ANX102219J025</t>
-  </si>
-  <si>
-    <t>ANX102219J026</t>
-  </si>
-  <si>
-    <t>ANX102219J027</t>
-  </si>
-  <si>
-    <t>ANX102219J028</t>
-  </si>
-  <si>
-    <t>ANX102219J029</t>
-  </si>
-  <si>
-    <t>ANX102219J030</t>
-  </si>
-  <si>
-    <t>ANX102219J031</t>
-  </si>
-  <si>
-    <t>ANX102219J032</t>
-  </si>
-  <si>
-    <t>ANX102219J033</t>
-  </si>
-  <si>
-    <t>ANX102219J034</t>
-  </si>
-  <si>
-    <t>ANX102219J035</t>
-  </si>
-  <si>
-    <t>ANX102219J036</t>
-  </si>
-  <si>
-    <t>ANX102219J037</t>
-  </si>
-  <si>
-    <t>ANX102219J038</t>
-  </si>
-  <si>
-    <t>ANX102219J039</t>
-  </si>
-  <si>
-    <t>ANX102219J040</t>
-  </si>
-  <si>
-    <t>ANX102219J041</t>
-  </si>
-  <si>
-    <t>ANX102219J042</t>
-  </si>
-  <si>
-    <t>ANX102219J043</t>
-  </si>
-  <si>
-    <t>ANX102219J044</t>
-  </si>
-  <si>
-    <t>ANX102219J045</t>
-  </si>
-  <si>
-    <t>ANX102219J046</t>
-  </si>
-  <si>
-    <t>ANX102219J047</t>
-  </si>
-  <si>
-    <t>ANX102219J048</t>
-  </si>
-  <si>
-    <t>ANX102219J049</t>
-  </si>
-  <si>
-    <t>ANX102219J050</t>
-  </si>
-  <si>
-    <t>ANX102219J051</t>
-  </si>
-  <si>
-    <t>ANX102219J052</t>
-  </si>
-  <si>
-    <t>ANX102219J053</t>
-  </si>
-  <si>
-    <t>ANX102219J054</t>
-  </si>
-  <si>
-    <t>ANX102219J055</t>
-  </si>
-  <si>
-    <t>ANX102219J056</t>
-  </si>
-  <si>
-    <t>ANX102219J057</t>
-  </si>
-  <si>
-    <t>ANX102219J058</t>
-  </si>
-  <si>
-    <t>ANX102219J059</t>
-  </si>
-  <si>
-    <t>ANX102219J060</t>
-  </si>
-  <si>
-    <t>ANX102219J061</t>
-  </si>
-  <si>
-    <t>ANX102219J062</t>
-  </si>
-  <si>
-    <t>ANX102219J063</t>
-  </si>
-  <si>
-    <t>ANX102219J064</t>
-  </si>
-  <si>
-    <t>ANX102219J065</t>
-  </si>
-  <si>
-    <t>ANX102219J066</t>
-  </si>
-  <si>
-    <t>ANX102219J067</t>
-  </si>
-  <si>
-    <t>ANX102219J068</t>
-  </si>
-  <si>
-    <t>ANX102219J069</t>
-  </si>
-  <si>
-    <t>ANX102219J070</t>
-  </si>
-  <si>
-    <t>ANX102219J071</t>
-  </si>
-  <si>
-    <t>ANX102219J072</t>
-  </si>
-  <si>
-    <t>ANX102219J073</t>
-  </si>
-  <si>
-    <t>ANX102219J074</t>
-  </si>
-  <si>
-    <t>ANX102219J075</t>
-  </si>
-  <si>
-    <t>ANX102219J076</t>
-  </si>
-  <si>
-    <t>ANX102219J077</t>
-  </si>
-  <si>
-    <t>ANX102219J078</t>
-  </si>
-  <si>
-    <t>ANX102219J079</t>
-  </si>
-  <si>
-    <t>ANX102219J080</t>
-  </si>
-  <si>
-    <t>ANX102219J081</t>
-  </si>
-  <si>
-    <t>ANX102219J082</t>
-  </si>
-  <si>
-    <t>ANX102219J083</t>
-  </si>
-  <si>
-    <t>ANX102219J084</t>
-  </si>
-  <si>
-    <t>ANX102219J085</t>
-  </si>
-  <si>
-    <t>ANX102219J086</t>
-  </si>
-  <si>
-    <t>ANX102219J087</t>
-  </si>
-  <si>
-    <t>ANX102219J088</t>
-  </si>
-  <si>
-    <t>ANX102219J089</t>
-  </si>
-  <si>
-    <t>ANX102219J090</t>
-  </si>
-  <si>
-    <t>ANX102219J091</t>
-  </si>
-  <si>
-    <t>ANX102219J092</t>
-  </si>
-  <si>
-    <t>ANX102219J093</t>
-  </si>
-  <si>
-    <t>ANX102219J094</t>
-  </si>
-  <si>
-    <t>ANX102219J095</t>
-  </si>
-  <si>
-    <t>ANX102219J096</t>
-  </si>
-  <si>
-    <t>ANX102219J097</t>
-  </si>
-  <si>
-    <t>ANX102219J098</t>
-  </si>
-  <si>
-    <t>ANX102219J099</t>
-  </si>
-  <si>
-    <t>ANX102219J100</t>
-  </si>
-  <si>
-    <t>ANX102219J101</t>
-  </si>
-  <si>
-    <t>ANX102219J102</t>
-  </si>
-  <si>
-    <t>ANX102219J103</t>
-  </si>
-  <si>
-    <t>ANX102219J104</t>
-  </si>
-  <si>
-    <t>ANX102219J105</t>
-  </si>
-  <si>
-    <t>ANX102219J106</t>
-  </si>
-  <si>
-    <t>ANX102219J107</t>
-  </si>
-  <si>
-    <t>ANX102219J108</t>
-  </si>
-  <si>
-    <t>ANX102219J109</t>
-  </si>
-  <si>
-    <t>ANX102219J110</t>
-  </si>
-  <si>
-    <t>ANX102219J111</t>
-  </si>
-  <si>
-    <t>ANX102219J112</t>
-  </si>
-  <si>
-    <t>ANX102219J113</t>
-  </si>
-  <si>
-    <t>ANX102219J114</t>
-  </si>
-  <si>
-    <t>ANX102219J115</t>
-  </si>
-  <si>
-    <t>ANX102219J116</t>
-  </si>
-  <si>
-    <t>ANX102219J117</t>
-  </si>
-  <si>
-    <t>ANX102219J118</t>
-  </si>
-  <si>
-    <t>ANX102219J119</t>
-  </si>
-  <si>
-    <t>ANX102219J120</t>
-  </si>
-  <si>
-    <t>ANX102219J121</t>
-  </si>
-  <si>
-    <t>ANX102219J122</t>
-  </si>
-  <si>
-    <t>ANX102219J123</t>
-  </si>
-  <si>
-    <t>ANX102219J124</t>
-  </si>
-  <si>
-    <t>ANX102219J125</t>
-  </si>
-  <si>
-    <t>ANX102219J126</t>
-  </si>
-  <si>
-    <t>ANX102219J127</t>
-  </si>
-  <si>
-    <t>ANX102219J128</t>
-  </si>
-  <si>
-    <t>ANX102219J129</t>
-  </si>
-  <si>
-    <t>ANX102219J130</t>
-  </si>
-  <si>
-    <t>ANX102219J131</t>
-  </si>
-  <si>
-    <t>ANX102219J132</t>
-  </si>
-  <si>
-    <t>ANX102219J133</t>
-  </si>
-  <si>
-    <t>ANX102219J134</t>
-  </si>
-  <si>
-    <t>ANX102219J135</t>
-  </si>
-  <si>
-    <t>ANX102219J136</t>
-  </si>
-  <si>
-    <t>ANX102219J137</t>
-  </si>
-  <si>
-    <t>ANX102219J138</t>
-  </si>
-  <si>
-    <t>ANX102219J139</t>
-  </si>
-  <si>
-    <t>ANX102219J140</t>
-  </si>
-  <si>
-    <t>ANX102219J141</t>
-  </si>
-  <si>
-    <t>ANX102219J142</t>
-  </si>
-  <si>
-    <t>ANX102219J143</t>
-  </si>
-  <si>
-    <t>ANX102219J144</t>
-  </si>
-  <si>
-    <t>ANX102219J145</t>
-  </si>
-  <si>
-    <t>ANX102219J146</t>
-  </si>
-  <si>
-    <t>ANX102219J147</t>
-  </si>
-  <si>
-    <t>ANX102219J148</t>
-  </si>
-  <si>
-    <t>ANX102219J149</t>
-  </si>
-  <si>
-    <t>ANX102219J150</t>
-  </si>
-  <si>
-    <t>ANX102219J151</t>
-  </si>
-  <si>
-    <t>ANX102219J152</t>
-  </si>
-  <si>
-    <t>ANX102219J153</t>
-  </si>
-  <si>
-    <t>ANX102219J154</t>
-  </si>
-  <si>
-    <t>ANX102219J155</t>
-  </si>
-  <si>
-    <t>ANX102219J156</t>
-  </si>
-  <si>
-    <t>ANX102219J157</t>
-  </si>
-  <si>
-    <t>ANX102219J158</t>
-  </si>
-  <si>
-    <t>ANX102219J159</t>
-  </si>
-  <si>
-    <t>ANX102219J160</t>
-  </si>
-  <si>
-    <t>ANX102219J161</t>
-  </si>
-  <si>
-    <t>ANX102219J162</t>
-  </si>
-  <si>
-    <t>ANX102219J163</t>
-  </si>
-  <si>
-    <t>ANX102219J164</t>
-  </si>
-  <si>
-    <t>ANX102219J165</t>
-  </si>
-  <si>
-    <t>ANX102219J166</t>
-  </si>
-  <si>
-    <t>ANX102219J167</t>
-  </si>
-  <si>
-    <t>ANX102219J168</t>
-  </si>
-  <si>
-    <t>ANX102219J169</t>
-  </si>
-  <si>
-    <t>ANX102219J170</t>
-  </si>
-  <si>
-    <t>ANX102219J171</t>
-  </si>
-  <si>
-    <t>ANX102219J172</t>
-  </si>
-  <si>
-    <t>ANX102219J173</t>
-  </si>
-  <si>
-    <t>ANX102219J174</t>
-  </si>
-  <si>
-    <t>ANX102219J175</t>
-  </si>
-  <si>
-    <t>ANX102219J176</t>
-  </si>
-  <si>
-    <t>ANX102219J177</t>
-  </si>
-  <si>
-    <t>ANX102219J178</t>
-  </si>
-  <si>
-    <t>ANX102219J179</t>
-  </si>
-  <si>
-    <t>ANX102219J180</t>
-  </si>
-  <si>
-    <t>ANX102219J181</t>
-  </si>
-  <si>
-    <t>ANX102219J182</t>
-  </si>
-  <si>
-    <t>ANX102219J183</t>
-  </si>
-  <si>
-    <t>ANX102219J184</t>
-  </si>
-  <si>
-    <t>ANX102219J185</t>
-  </si>
-  <si>
-    <t>ANX102219J186</t>
-  </si>
-  <si>
-    <t>ANX102219J187</t>
-  </si>
-  <si>
-    <t>ANX102219J188</t>
-  </si>
-  <si>
-    <t>ANX102219J189</t>
-  </si>
-  <si>
-    <t>ANX102219J190</t>
-  </si>
-  <si>
-    <t>ANX102219J191</t>
-  </si>
-  <si>
-    <t>ANX102219J192</t>
-  </si>
-  <si>
-    <t>ANX102219J193</t>
-  </si>
-  <si>
-    <t>ANX102219J194</t>
-  </si>
-  <si>
-    <t>ANX102219J195</t>
-  </si>
-  <si>
-    <t>ANX102219J196</t>
-  </si>
-  <si>
-    <t>ANX102219J197</t>
-  </si>
-  <si>
-    <t>ANX102219J198</t>
-  </si>
-  <si>
-    <t>ANX102219J199</t>
-  </si>
-  <si>
-    <t>ANX102219J200</t>
+    <t>NAR-JUL-2021-001</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-002</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-003</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-004</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-005</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-006</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-007</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-008</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-009</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-010</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-011</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-012</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-013</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-014</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-015</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-016</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-017</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-018</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-019</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-020</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-021</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-022</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-023</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-024</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-025</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-026</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-027</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-028</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-029</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-030</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-031</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-032</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-033</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-034</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-035</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-036</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-037</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-038</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-039</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-040</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-041</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-042</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-043</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-044</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-045</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-046</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-047</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-048</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-049</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-050</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-051</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-052</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-053</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-054</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-055</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-056</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-057</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-058</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-059</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-060</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-061</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-062</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-063</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-064</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-065</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-066</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-067</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-068</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-069</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-070</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-071</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-072</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-073</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-074</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-075</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-076</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-077</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-078</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-079</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-080</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-081</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-082</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-083</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-084</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-085</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-086</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-087</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-088</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-089</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-090</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-091</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-092</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-093</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-094</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-095</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-096</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-097</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-098</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-099</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-100</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-101</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-102</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-103</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-104</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-105</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-106</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-107</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-108</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-109</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-110</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-111</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-112</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-113</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-114</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-115</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-116</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-117</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-118</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-119</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-120</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-121</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-122</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-123</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-124</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-125</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-126</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-127</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-128</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-129</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-130</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-131</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-132</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-133</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-134</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-135</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-136</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-137</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-138</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-139</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-140</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-141</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-142</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-143</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-144</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-145</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-146</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-147</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-148</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-149</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-150</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-151</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-152</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-153</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-154</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-155</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-156</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-157</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-158</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-159</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-160</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-161</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-162</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-163</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-164</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-165</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-166</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-167</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-168</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-169</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-170</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-171</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-172</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-173</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-174</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-175</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-176</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-177</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-178</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-179</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-180</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-181</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-182</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-183</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-184</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-185</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-186</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-187</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-188</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-189</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-190</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-191</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-192</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-193</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-194</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-195</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-196</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-197</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-198</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-199</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-200</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-201</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-202</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-203</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-204</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-205</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-206</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-207</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-208</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-209</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-210</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-211</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-212</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-213</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-214</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-215</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-216</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-217</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-218</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-219</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-220</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-221</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-222</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-223</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-224</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-225</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-226</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-227</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-228</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-229</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-230</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-231</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-232</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-233</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-234</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-235</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-236</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-237</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-238</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-239</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-240</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-241</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-242</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-243</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-244</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-245</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-246</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-247</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-248</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-249</t>
+  </si>
+  <si>
+    <t>NAR-JUL-2021-250</t>
+  </si>
+  <si>
+    <t>Stomach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -962,16 +1119,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201:E251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -994,16 +1151,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -1011,16 +1168,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1028,16 +1185,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1045,16 +1202,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -1062,16 +1219,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -1079,16 +1236,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -1096,16 +1253,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -1113,16 +1270,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -1130,16 +1287,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -1147,16 +1304,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -1164,16 +1321,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -1181,16 +1338,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -1198,16 +1355,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -1215,16 +1372,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -1232,16 +1389,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -1249,16 +1406,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -1266,16 +1423,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -1283,16 +1440,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -1300,16 +1457,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -1317,16 +1474,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -1334,16 +1491,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -1351,16 +1508,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -1368,16 +1525,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -1385,16 +1542,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -1402,16 +1559,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
@@ -1419,16 +1576,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -1436,16 +1593,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -1453,16 +1610,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -1470,16 +1627,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
@@ -1487,16 +1644,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -1504,16 +1661,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -1521,16 +1678,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -1538,16 +1695,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
@@ -1555,16 +1712,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1572,16 +1729,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
@@ -1589,16 +1746,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -1606,16 +1763,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
@@ -1623,16 +1780,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1640,16 +1797,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
@@ -1657,16 +1814,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
@@ -1674,16 +1831,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -1691,16 +1848,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1708,16 +1865,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
@@ -1725,16 +1882,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
@@ -1742,16 +1899,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
@@ -1759,16 +1916,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -1776,16 +1933,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -1793,16 +1950,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -1810,16 +1967,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
@@ -1827,16 +1984,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
@@ -1844,16 +2001,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
@@ -1861,16 +2018,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -1878,16 +2035,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
         <v>6</v>
@@ -1895,16 +2052,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
@@ -1912,16 +2069,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
         <v>6</v>
@@ -1929,16 +2086,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
@@ -1946,16 +2103,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
         <v>6</v>
@@ -1963,16 +2120,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
         <v>6</v>
@@ -1980,16 +2137,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
         <v>6</v>
@@ -1997,16 +2154,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
         <v>6</v>
@@ -2014,16 +2171,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62" t="s">
         <v>6</v>
@@ -2031,16 +2188,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
@@ -2048,16 +2205,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
         <v>6</v>
@@ -2065,16 +2222,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
@@ -2082,16 +2239,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
@@ -2099,16 +2256,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
         <v>6</v>
@@ -2116,16 +2273,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E68" t="s">
         <v>6</v>
@@ -2133,16 +2290,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69" t="s">
         <v>6</v>
@@ -2150,16 +2307,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
         <v>6</v>
@@ -2167,16 +2324,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E71" t="s">
         <v>6</v>
@@ -2184,16 +2341,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
         <v>6</v>
@@ -2201,16 +2358,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
         <v>6</v>
@@ -2218,16 +2375,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E74" t="s">
         <v>6</v>
@@ -2235,16 +2392,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E75" t="s">
         <v>6</v>
@@ -2252,16 +2409,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E76" t="s">
         <v>6</v>
@@ -2269,16 +2426,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77" t="s">
         <v>6</v>
@@ -2286,16 +2443,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E78" t="s">
         <v>6</v>
@@ -2303,16 +2460,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E79" t="s">
         <v>6</v>
@@ -2320,16 +2477,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
         <v>6</v>
@@ -2337,16 +2494,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E81" t="s">
         <v>6</v>
@@ -2354,16 +2511,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E82" t="s">
         <v>6</v>
@@ -2371,16 +2528,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E83" t="s">
         <v>6</v>
@@ -2388,16 +2545,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E84" t="s">
         <v>6</v>
@@ -2405,16 +2562,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E85" t="s">
         <v>6</v>
@@ -2422,16 +2579,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E86" t="s">
         <v>6</v>
@@ -2439,16 +2596,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E87" t="s">
         <v>6</v>
@@ -2456,16 +2613,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E88" t="s">
         <v>6</v>
@@ -2473,16 +2630,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
         <v>6</v>
@@ -2490,16 +2647,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E90" t="s">
         <v>6</v>
@@ -2507,16 +2664,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E91" t="s">
         <v>6</v>
@@ -2524,16 +2681,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E92" t="s">
         <v>6</v>
@@ -2541,16 +2698,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
         <v>6</v>
@@ -2558,16 +2715,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E94" t="s">
         <v>6</v>
@@ -2575,16 +2732,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E95" t="s">
         <v>6</v>
@@ -2592,16 +2749,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E96" t="s">
         <v>6</v>
@@ -2609,16 +2766,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97" t="s">
         <v>6</v>
@@ -2626,16 +2783,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E98" t="s">
         <v>6</v>
@@ -2643,16 +2800,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E99" t="s">
         <v>6</v>
@@ -2660,16 +2817,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E100" t="s">
         <v>6</v>
@@ -2677,16 +2834,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E101" t="s">
         <v>6</v>
@@ -2694,16 +2851,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E102" t="s">
         <v>6</v>
@@ -2711,16 +2868,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E103" t="s">
         <v>6</v>
@@ -2728,16 +2885,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E104" t="s">
         <v>6</v>
@@ -2745,16 +2902,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E105" t="s">
         <v>6</v>
@@ -2762,16 +2919,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E106" t="s">
         <v>6</v>
@@ -2779,16 +2936,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107" t="s">
         <v>6</v>
@@ -2796,16 +2953,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E108" t="s">
         <v>6</v>
@@ -2813,16 +2970,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E109" t="s">
         <v>6</v>
@@ -2830,16 +2987,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E110" t="s">
         <v>6</v>
@@ -2847,16 +3004,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E111" t="s">
         <v>6</v>
@@ -2864,16 +3021,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E112" t="s">
         <v>6</v>
@@ -2881,16 +3038,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E113" t="s">
         <v>6</v>
@@ -2898,16 +3055,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E114" t="s">
         <v>6</v>
@@ -2915,16 +3072,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E115" t="s">
         <v>6</v>
@@ -2932,16 +3089,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E116" t="s">
         <v>6</v>
@@ -2949,16 +3106,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E117" t="s">
         <v>6</v>
@@ -2966,16 +3123,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E118" t="s">
         <v>6</v>
@@ -2983,16 +3140,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E119" t="s">
         <v>6</v>
@@ -3000,16 +3157,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E120" t="s">
         <v>6</v>
@@ -3017,16 +3174,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E121" t="s">
         <v>6</v>
@@ -3034,16 +3191,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E122" t="s">
         <v>6</v>
@@ -3051,16 +3208,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E123" t="s">
         <v>6</v>
@@ -3068,16 +3225,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E124" t="s">
         <v>6</v>
@@ -3085,16 +3242,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E125" t="s">
         <v>6</v>
@@ -3102,16 +3259,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E126" t="s">
         <v>6</v>
@@ -3119,16 +3276,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E127" t="s">
         <v>6</v>
@@ -3136,16 +3293,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E128" t="s">
         <v>6</v>
@@ -3153,16 +3310,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E129" t="s">
         <v>6</v>
@@ -3170,16 +3327,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E130" t="s">
         <v>6</v>
@@ -3187,16 +3344,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E131" t="s">
         <v>6</v>
@@ -3204,16 +3361,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E132" t="s">
         <v>6</v>
@@ -3221,16 +3378,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E133" t="s">
         <v>6</v>
@@ -3238,16 +3395,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E134" t="s">
         <v>6</v>
@@ -3255,16 +3412,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E135" t="s">
         <v>6</v>
@@ -3272,16 +3429,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E136" t="s">
         <v>6</v>
@@ -3289,16 +3446,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E137" t="s">
         <v>6</v>
@@ -3306,16 +3463,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E138" t="s">
         <v>6</v>
@@ -3323,16 +3480,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E139" t="s">
         <v>6</v>
@@ -3340,16 +3497,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E140" t="s">
         <v>6</v>
@@ -3357,16 +3514,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E141" t="s">
         <v>6</v>
@@ -3374,16 +3531,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E142" t="s">
         <v>6</v>
@@ -3391,16 +3548,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E143" t="s">
         <v>6</v>
@@ -3408,16 +3565,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E144" t="s">
         <v>6</v>
@@ -3425,16 +3582,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E145" t="s">
         <v>6</v>
@@ -3442,16 +3599,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E146" t="s">
         <v>6</v>
@@ -3459,16 +3616,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E147" t="s">
         <v>6</v>
@@ -3476,16 +3633,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E148" t="s">
         <v>6</v>
@@ -3493,16 +3650,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E149" t="s">
         <v>6</v>
@@ -3510,16 +3667,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E150" t="s">
         <v>6</v>
@@ -3527,16 +3684,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E151" t="s">
         <v>6</v>
@@ -3544,16 +3701,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E152" t="s">
         <v>6</v>
@@ -3561,16 +3718,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E153" t="s">
         <v>6</v>
@@ -3578,16 +3735,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E154" t="s">
         <v>6</v>
@@ -3595,16 +3752,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E155" t="s">
         <v>6</v>
@@ -3612,16 +3769,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E156" t="s">
         <v>6</v>
@@ -3629,16 +3786,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E157" t="s">
         <v>6</v>
@@ -3646,16 +3803,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E158" t="s">
         <v>6</v>
@@ -3663,16 +3820,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E159" t="s">
         <v>6</v>
@@ -3680,16 +3837,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E160" t="s">
         <v>6</v>
@@ -3697,16 +3854,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E161" t="s">
         <v>6</v>
@@ -3714,16 +3871,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E162" t="s">
         <v>6</v>
@@ -3731,16 +3888,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E163" t="s">
         <v>6</v>
@@ -3748,16 +3905,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E164" t="s">
         <v>6</v>
@@ -3765,16 +3922,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E165" t="s">
         <v>6</v>
@@ -3782,16 +3939,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E166" t="s">
         <v>6</v>
@@ -3799,16 +3956,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E167" t="s">
         <v>6</v>
@@ -3816,16 +3973,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E168" t="s">
         <v>6</v>
@@ -3833,16 +3990,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E169" t="s">
         <v>6</v>
@@ -3850,16 +4007,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E170" t="s">
         <v>6</v>
@@ -3867,16 +4024,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E171" t="s">
         <v>6</v>
@@ -3884,16 +4041,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E172" t="s">
         <v>6</v>
@@ -3901,16 +4058,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E173" t="s">
         <v>6</v>
@@ -3918,16 +4075,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E174" t="s">
         <v>6</v>
@@ -3935,16 +4092,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E175" t="s">
         <v>6</v>
@@ -3952,16 +4109,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E176" t="s">
         <v>6</v>
@@ -3969,16 +4126,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E177" t="s">
         <v>6</v>
@@ -3986,16 +4143,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E178" t="s">
         <v>6</v>
@@ -4003,16 +4160,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E179" t="s">
         <v>6</v>
@@ -4020,16 +4177,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E180" t="s">
         <v>6</v>
@@ -4037,16 +4194,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E181" t="s">
         <v>6</v>
@@ -4054,16 +4211,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E182" t="s">
         <v>6</v>
@@ -4071,16 +4228,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E183" t="s">
         <v>6</v>
@@ -4088,16 +4245,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E184" t="s">
         <v>6</v>
@@ -4105,16 +4262,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E185" t="s">
         <v>6</v>
@@ -4122,16 +4279,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E186" t="s">
         <v>6</v>
@@ -4139,16 +4296,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E187" t="s">
         <v>6</v>
@@ -4156,16 +4313,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E188" t="s">
         <v>6</v>
@@ -4173,16 +4330,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E189" t="s">
         <v>6</v>
@@ -4190,16 +4347,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E190" t="s">
         <v>6</v>
@@ -4207,16 +4364,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E191" t="s">
         <v>6</v>
@@ -4224,16 +4381,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E192" t="s">
         <v>6</v>
@@ -4241,16 +4398,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E193" t="s">
         <v>6</v>
@@ -4258,16 +4415,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E194" t="s">
         <v>6</v>
@@ -4275,16 +4432,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E195" t="s">
         <v>6</v>
@@ -4292,16 +4449,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E196" t="s">
         <v>6</v>
@@ -4309,16 +4466,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E197" t="s">
         <v>6</v>
@@ -4326,16 +4483,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E198" t="s">
         <v>6</v>
@@ -4343,16 +4500,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E199" t="s">
         <v>6</v>
@@ -4360,16 +4517,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="D200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E200" t="s">
         <v>6</v>
@@ -4377,22 +4534,873 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>207</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>258</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>208</v>
       </c>
-      <c r="B201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C201" t="s">
-        <v>7</v>
-      </c>
-      <c r="D201" t="s">
-        <v>8</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>258</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>209</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>258</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>210</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>258</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>211</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>258</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>212</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>258</v>
+      </c>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>213</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>258</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>214</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>258</v>
+      </c>
+      <c r="D208" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>215</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>258</v>
+      </c>
+      <c r="D209" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>216</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>258</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>217</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>258</v>
+      </c>
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>218</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>258</v>
+      </c>
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>219</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>258</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>258</v>
+      </c>
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>221</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>258</v>
+      </c>
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>222</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>258</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>223</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>258</v>
+      </c>
+      <c r="D217" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>224</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>258</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>225</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>258</v>
+      </c>
+      <c r="D219" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>226</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>258</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>227</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>258</v>
+      </c>
+      <c r="D221" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>258</v>
+      </c>
+      <c r="D222" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>258</v>
+      </c>
+      <c r="D223" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>258</v>
+      </c>
+      <c r="D224" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>258</v>
+      </c>
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>232</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>258</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>233</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>258</v>
+      </c>
+      <c r="D227" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>234</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>258</v>
+      </c>
+      <c r="D228" t="s">
+        <v>7</v>
+      </c>
+      <c r="E228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>235</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>258</v>
+      </c>
+      <c r="D229" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>236</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>258</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>237</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>258</v>
+      </c>
+      <c r="D231" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>238</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>258</v>
+      </c>
+      <c r="D232" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>239</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>258</v>
+      </c>
+      <c r="D233" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>240</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>258</v>
+      </c>
+      <c r="D234" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>241</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>258</v>
+      </c>
+      <c r="D235" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>242</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>258</v>
+      </c>
+      <c r="D236" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>243</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>258</v>
+      </c>
+      <c r="D237" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>244</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>258</v>
+      </c>
+      <c r="D238" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>245</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>258</v>
+      </c>
+      <c r="D239" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>246</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>258</v>
+      </c>
+      <c r="D240" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>247</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>258</v>
+      </c>
+      <c r="D241" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>248</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>258</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>249</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>258</v>
+      </c>
+      <c r="D243" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>250</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>258</v>
+      </c>
+      <c r="D244" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>251</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>258</v>
+      </c>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>252</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>258</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>253</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>258</v>
+      </c>
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>254</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>258</v>
+      </c>
+      <c r="D248" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>255</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>258</v>
+      </c>
+      <c r="D249" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>256</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>258</v>
+      </c>
+      <c r="D250" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>257</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>258</v>
+      </c>
+      <c r="D251" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4562,18 +5570,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4595,6 +5603,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5F1DD53-52B8-427C-82AD-FF0A909EF01A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1286A83B-42D7-4088-98A5-B9B72B2E0E4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4609,12 +5625,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5F1DD53-52B8-427C-82AD-FF0A909EF01A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>